--- a/pg/sanwa-main/FastAPI/app/templates/xlsx/Template請求明細一覧表.xlsx
+++ b/pg/sanwa-main/FastAPI/app/templates/xlsx/Template請求明細一覧表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Sanwa\trunk\src\sanwa\FastAPI\app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT-240014\SVN\YJY_三和商研受発注システム\trunk\src\sanwa-main\FastAPI\app\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -295,21 +295,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -322,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,24 +363,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,528 +661,528 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="2"/>
-    <col min="3" max="3" width="33.69921875" style="3" customWidth="1"/>
-    <col min="4" max="7" width="10.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="0.69921875" style="2" customWidth="1"/>
-    <col min="11" max="256" width="8.09765625" style="2"/>
+    <col min="2" max="2" width="8.125" style="2"/>
+    <col min="3" max="3" width="33.75" style="3" customWidth="1"/>
+    <col min="4" max="7" width="10.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="0.75" style="2" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="2"/>
     <col min="257" max="257" width="9" style="2" customWidth="1"/>
-    <col min="258" max="258" width="8.09765625" style="2"/>
-    <col min="259" max="259" width="33.69921875" style="2" customWidth="1"/>
-    <col min="260" max="263" width="10.09765625" style="2" customWidth="1"/>
+    <col min="258" max="258" width="8.125" style="2"/>
+    <col min="259" max="259" width="33.75" style="2" customWidth="1"/>
+    <col min="260" max="263" width="10.125" style="2" customWidth="1"/>
     <col min="264" max="264" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="265" max="265" width="13.3984375" style="2" customWidth="1"/>
-    <col min="266" max="266" width="0.69921875" style="2" customWidth="1"/>
-    <col min="267" max="512" width="8.09765625" style="2"/>
+    <col min="265" max="265" width="13.375" style="2" customWidth="1"/>
+    <col min="266" max="266" width="0.75" style="2" customWidth="1"/>
+    <col min="267" max="512" width="8.125" style="2"/>
     <col min="513" max="513" width="9" style="2" customWidth="1"/>
-    <col min="514" max="514" width="8.09765625" style="2"/>
-    <col min="515" max="515" width="33.69921875" style="2" customWidth="1"/>
-    <col min="516" max="519" width="10.09765625" style="2" customWidth="1"/>
+    <col min="514" max="514" width="8.125" style="2"/>
+    <col min="515" max="515" width="33.75" style="2" customWidth="1"/>
+    <col min="516" max="519" width="10.125" style="2" customWidth="1"/>
     <col min="520" max="520" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="521" max="521" width="13.3984375" style="2" customWidth="1"/>
-    <col min="522" max="522" width="0.69921875" style="2" customWidth="1"/>
-    <col min="523" max="768" width="8.09765625" style="2"/>
+    <col min="521" max="521" width="13.375" style="2" customWidth="1"/>
+    <col min="522" max="522" width="0.75" style="2" customWidth="1"/>
+    <col min="523" max="768" width="8.125" style="2"/>
     <col min="769" max="769" width="9" style="2" customWidth="1"/>
-    <col min="770" max="770" width="8.09765625" style="2"/>
-    <col min="771" max="771" width="33.69921875" style="2" customWidth="1"/>
-    <col min="772" max="775" width="10.09765625" style="2" customWidth="1"/>
+    <col min="770" max="770" width="8.125" style="2"/>
+    <col min="771" max="771" width="33.75" style="2" customWidth="1"/>
+    <col min="772" max="775" width="10.125" style="2" customWidth="1"/>
     <col min="776" max="776" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="777" max="777" width="13.3984375" style="2" customWidth="1"/>
-    <col min="778" max="778" width="0.69921875" style="2" customWidth="1"/>
-    <col min="779" max="1024" width="8.09765625" style="2"/>
+    <col min="777" max="777" width="13.375" style="2" customWidth="1"/>
+    <col min="778" max="778" width="0.75" style="2" customWidth="1"/>
+    <col min="779" max="1024" width="8.125" style="2"/>
     <col min="1025" max="1025" width="9" style="2" customWidth="1"/>
-    <col min="1026" max="1026" width="8.09765625" style="2"/>
-    <col min="1027" max="1027" width="33.69921875" style="2" customWidth="1"/>
-    <col min="1028" max="1031" width="10.09765625" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="8.125" style="2"/>
+    <col min="1027" max="1027" width="33.75" style="2" customWidth="1"/>
+    <col min="1028" max="1031" width="10.125" style="2" customWidth="1"/>
     <col min="1032" max="1032" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1033" max="1033" width="13.3984375" style="2" customWidth="1"/>
-    <col min="1034" max="1034" width="0.69921875" style="2" customWidth="1"/>
-    <col min="1035" max="1280" width="8.09765625" style="2"/>
+    <col min="1033" max="1033" width="13.375" style="2" customWidth="1"/>
+    <col min="1034" max="1034" width="0.75" style="2" customWidth="1"/>
+    <col min="1035" max="1280" width="8.125" style="2"/>
     <col min="1281" max="1281" width="9" style="2" customWidth="1"/>
-    <col min="1282" max="1282" width="8.09765625" style="2"/>
-    <col min="1283" max="1283" width="33.69921875" style="2" customWidth="1"/>
-    <col min="1284" max="1287" width="10.09765625" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="8.125" style="2"/>
+    <col min="1283" max="1283" width="33.75" style="2" customWidth="1"/>
+    <col min="1284" max="1287" width="10.125" style="2" customWidth="1"/>
     <col min="1288" max="1288" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1289" max="1289" width="13.3984375" style="2" customWidth="1"/>
-    <col min="1290" max="1290" width="0.69921875" style="2" customWidth="1"/>
-    <col min="1291" max="1536" width="8.09765625" style="2"/>
+    <col min="1289" max="1289" width="13.375" style="2" customWidth="1"/>
+    <col min="1290" max="1290" width="0.75" style="2" customWidth="1"/>
+    <col min="1291" max="1536" width="8.125" style="2"/>
     <col min="1537" max="1537" width="9" style="2" customWidth="1"/>
-    <col min="1538" max="1538" width="8.09765625" style="2"/>
-    <col min="1539" max="1539" width="33.69921875" style="2" customWidth="1"/>
-    <col min="1540" max="1543" width="10.09765625" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="8.125" style="2"/>
+    <col min="1539" max="1539" width="33.75" style="2" customWidth="1"/>
+    <col min="1540" max="1543" width="10.125" style="2" customWidth="1"/>
     <col min="1544" max="1544" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1545" max="1545" width="13.3984375" style="2" customWidth="1"/>
-    <col min="1546" max="1546" width="0.69921875" style="2" customWidth="1"/>
-    <col min="1547" max="1792" width="8.09765625" style="2"/>
+    <col min="1545" max="1545" width="13.375" style="2" customWidth="1"/>
+    <col min="1546" max="1546" width="0.75" style="2" customWidth="1"/>
+    <col min="1547" max="1792" width="8.125" style="2"/>
     <col min="1793" max="1793" width="9" style="2" customWidth="1"/>
-    <col min="1794" max="1794" width="8.09765625" style="2"/>
-    <col min="1795" max="1795" width="33.69921875" style="2" customWidth="1"/>
-    <col min="1796" max="1799" width="10.09765625" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="8.125" style="2"/>
+    <col min="1795" max="1795" width="33.75" style="2" customWidth="1"/>
+    <col min="1796" max="1799" width="10.125" style="2" customWidth="1"/>
     <col min="1800" max="1800" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="1801" max="1801" width="13.3984375" style="2" customWidth="1"/>
-    <col min="1802" max="1802" width="0.69921875" style="2" customWidth="1"/>
-    <col min="1803" max="2048" width="8.09765625" style="2"/>
+    <col min="1801" max="1801" width="13.375" style="2" customWidth="1"/>
+    <col min="1802" max="1802" width="0.75" style="2" customWidth="1"/>
+    <col min="1803" max="2048" width="8.125" style="2"/>
     <col min="2049" max="2049" width="9" style="2" customWidth="1"/>
-    <col min="2050" max="2050" width="8.09765625" style="2"/>
-    <col min="2051" max="2051" width="33.69921875" style="2" customWidth="1"/>
-    <col min="2052" max="2055" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="8.125" style="2"/>
+    <col min="2051" max="2051" width="33.75" style="2" customWidth="1"/>
+    <col min="2052" max="2055" width="10.125" style="2" customWidth="1"/>
     <col min="2056" max="2056" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2057" max="2057" width="13.3984375" style="2" customWidth="1"/>
-    <col min="2058" max="2058" width="0.69921875" style="2" customWidth="1"/>
-    <col min="2059" max="2304" width="8.09765625" style="2"/>
+    <col min="2057" max="2057" width="13.375" style="2" customWidth="1"/>
+    <col min="2058" max="2058" width="0.75" style="2" customWidth="1"/>
+    <col min="2059" max="2304" width="8.125" style="2"/>
     <col min="2305" max="2305" width="9" style="2" customWidth="1"/>
-    <col min="2306" max="2306" width="8.09765625" style="2"/>
-    <col min="2307" max="2307" width="33.69921875" style="2" customWidth="1"/>
-    <col min="2308" max="2311" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="8.125" style="2"/>
+    <col min="2307" max="2307" width="33.75" style="2" customWidth="1"/>
+    <col min="2308" max="2311" width="10.125" style="2" customWidth="1"/>
     <col min="2312" max="2312" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2313" max="2313" width="13.3984375" style="2" customWidth="1"/>
-    <col min="2314" max="2314" width="0.69921875" style="2" customWidth="1"/>
-    <col min="2315" max="2560" width="8.09765625" style="2"/>
+    <col min="2313" max="2313" width="13.375" style="2" customWidth="1"/>
+    <col min="2314" max="2314" width="0.75" style="2" customWidth="1"/>
+    <col min="2315" max="2560" width="8.125" style="2"/>
     <col min="2561" max="2561" width="9" style="2" customWidth="1"/>
-    <col min="2562" max="2562" width="8.09765625" style="2"/>
-    <col min="2563" max="2563" width="33.69921875" style="2" customWidth="1"/>
-    <col min="2564" max="2567" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="8.125" style="2"/>
+    <col min="2563" max="2563" width="33.75" style="2" customWidth="1"/>
+    <col min="2564" max="2567" width="10.125" style="2" customWidth="1"/>
     <col min="2568" max="2568" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2569" max="2569" width="13.3984375" style="2" customWidth="1"/>
-    <col min="2570" max="2570" width="0.69921875" style="2" customWidth="1"/>
-    <col min="2571" max="2816" width="8.09765625" style="2"/>
+    <col min="2569" max="2569" width="13.375" style="2" customWidth="1"/>
+    <col min="2570" max="2570" width="0.75" style="2" customWidth="1"/>
+    <col min="2571" max="2816" width="8.125" style="2"/>
     <col min="2817" max="2817" width="9" style="2" customWidth="1"/>
-    <col min="2818" max="2818" width="8.09765625" style="2"/>
-    <col min="2819" max="2819" width="33.69921875" style="2" customWidth="1"/>
-    <col min="2820" max="2823" width="10.09765625" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="8.125" style="2"/>
+    <col min="2819" max="2819" width="33.75" style="2" customWidth="1"/>
+    <col min="2820" max="2823" width="10.125" style="2" customWidth="1"/>
     <col min="2824" max="2824" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2825" max="2825" width="13.3984375" style="2" customWidth="1"/>
-    <col min="2826" max="2826" width="0.69921875" style="2" customWidth="1"/>
-    <col min="2827" max="3072" width="8.09765625" style="2"/>
+    <col min="2825" max="2825" width="13.375" style="2" customWidth="1"/>
+    <col min="2826" max="2826" width="0.75" style="2" customWidth="1"/>
+    <col min="2827" max="3072" width="8.125" style="2"/>
     <col min="3073" max="3073" width="9" style="2" customWidth="1"/>
-    <col min="3074" max="3074" width="8.09765625" style="2"/>
-    <col min="3075" max="3075" width="33.69921875" style="2" customWidth="1"/>
-    <col min="3076" max="3079" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="8.125" style="2"/>
+    <col min="3075" max="3075" width="33.75" style="2" customWidth="1"/>
+    <col min="3076" max="3079" width="10.125" style="2" customWidth="1"/>
     <col min="3080" max="3080" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3081" max="3081" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3082" max="3082" width="0.69921875" style="2" customWidth="1"/>
-    <col min="3083" max="3328" width="8.09765625" style="2"/>
+    <col min="3081" max="3081" width="13.375" style="2" customWidth="1"/>
+    <col min="3082" max="3082" width="0.75" style="2" customWidth="1"/>
+    <col min="3083" max="3328" width="8.125" style="2"/>
     <col min="3329" max="3329" width="9" style="2" customWidth="1"/>
-    <col min="3330" max="3330" width="8.09765625" style="2"/>
-    <col min="3331" max="3331" width="33.69921875" style="2" customWidth="1"/>
-    <col min="3332" max="3335" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="8.125" style="2"/>
+    <col min="3331" max="3331" width="33.75" style="2" customWidth="1"/>
+    <col min="3332" max="3335" width="10.125" style="2" customWidth="1"/>
     <col min="3336" max="3336" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3337" max="3337" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3338" max="3338" width="0.69921875" style="2" customWidth="1"/>
-    <col min="3339" max="3584" width="8.09765625" style="2"/>
+    <col min="3337" max="3337" width="13.375" style="2" customWidth="1"/>
+    <col min="3338" max="3338" width="0.75" style="2" customWidth="1"/>
+    <col min="3339" max="3584" width="8.125" style="2"/>
     <col min="3585" max="3585" width="9" style="2" customWidth="1"/>
-    <col min="3586" max="3586" width="8.09765625" style="2"/>
-    <col min="3587" max="3587" width="33.69921875" style="2" customWidth="1"/>
-    <col min="3588" max="3591" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="8.125" style="2"/>
+    <col min="3587" max="3587" width="33.75" style="2" customWidth="1"/>
+    <col min="3588" max="3591" width="10.125" style="2" customWidth="1"/>
     <col min="3592" max="3592" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3593" max="3593" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3594" max="3594" width="0.69921875" style="2" customWidth="1"/>
-    <col min="3595" max="3840" width="8.09765625" style="2"/>
+    <col min="3593" max="3593" width="13.375" style="2" customWidth="1"/>
+    <col min="3594" max="3594" width="0.75" style="2" customWidth="1"/>
+    <col min="3595" max="3840" width="8.125" style="2"/>
     <col min="3841" max="3841" width="9" style="2" customWidth="1"/>
-    <col min="3842" max="3842" width="8.09765625" style="2"/>
-    <col min="3843" max="3843" width="33.69921875" style="2" customWidth="1"/>
-    <col min="3844" max="3847" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="8.125" style="2"/>
+    <col min="3843" max="3843" width="33.75" style="2" customWidth="1"/>
+    <col min="3844" max="3847" width="10.125" style="2" customWidth="1"/>
     <col min="3848" max="3848" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="3849" max="3849" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3850" max="3850" width="0.69921875" style="2" customWidth="1"/>
-    <col min="3851" max="4096" width="8.09765625" style="2"/>
+    <col min="3849" max="3849" width="13.375" style="2" customWidth="1"/>
+    <col min="3850" max="3850" width="0.75" style="2" customWidth="1"/>
+    <col min="3851" max="4096" width="8.125" style="2"/>
     <col min="4097" max="4097" width="9" style="2" customWidth="1"/>
-    <col min="4098" max="4098" width="8.09765625" style="2"/>
-    <col min="4099" max="4099" width="33.69921875" style="2" customWidth="1"/>
-    <col min="4100" max="4103" width="10.09765625" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="8.125" style="2"/>
+    <col min="4099" max="4099" width="33.75" style="2" customWidth="1"/>
+    <col min="4100" max="4103" width="10.125" style="2" customWidth="1"/>
     <col min="4104" max="4104" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4105" max="4105" width="13.3984375" style="2" customWidth="1"/>
-    <col min="4106" max="4106" width="0.69921875" style="2" customWidth="1"/>
-    <col min="4107" max="4352" width="8.09765625" style="2"/>
+    <col min="4105" max="4105" width="13.375" style="2" customWidth="1"/>
+    <col min="4106" max="4106" width="0.75" style="2" customWidth="1"/>
+    <col min="4107" max="4352" width="8.125" style="2"/>
     <col min="4353" max="4353" width="9" style="2" customWidth="1"/>
-    <col min="4354" max="4354" width="8.09765625" style="2"/>
-    <col min="4355" max="4355" width="33.69921875" style="2" customWidth="1"/>
-    <col min="4356" max="4359" width="10.09765625" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="8.125" style="2"/>
+    <col min="4355" max="4355" width="33.75" style="2" customWidth="1"/>
+    <col min="4356" max="4359" width="10.125" style="2" customWidth="1"/>
     <col min="4360" max="4360" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4361" max="4361" width="13.3984375" style="2" customWidth="1"/>
-    <col min="4362" max="4362" width="0.69921875" style="2" customWidth="1"/>
-    <col min="4363" max="4608" width="8.09765625" style="2"/>
+    <col min="4361" max="4361" width="13.375" style="2" customWidth="1"/>
+    <col min="4362" max="4362" width="0.75" style="2" customWidth="1"/>
+    <col min="4363" max="4608" width="8.125" style="2"/>
     <col min="4609" max="4609" width="9" style="2" customWidth="1"/>
-    <col min="4610" max="4610" width="8.09765625" style="2"/>
-    <col min="4611" max="4611" width="33.69921875" style="2" customWidth="1"/>
-    <col min="4612" max="4615" width="10.09765625" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="8.125" style="2"/>
+    <col min="4611" max="4611" width="33.75" style="2" customWidth="1"/>
+    <col min="4612" max="4615" width="10.125" style="2" customWidth="1"/>
     <col min="4616" max="4616" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4617" max="4617" width="13.3984375" style="2" customWidth="1"/>
-    <col min="4618" max="4618" width="0.69921875" style="2" customWidth="1"/>
-    <col min="4619" max="4864" width="8.09765625" style="2"/>
+    <col min="4617" max="4617" width="13.375" style="2" customWidth="1"/>
+    <col min="4618" max="4618" width="0.75" style="2" customWidth="1"/>
+    <col min="4619" max="4864" width="8.125" style="2"/>
     <col min="4865" max="4865" width="9" style="2" customWidth="1"/>
-    <col min="4866" max="4866" width="8.09765625" style="2"/>
-    <col min="4867" max="4867" width="33.69921875" style="2" customWidth="1"/>
-    <col min="4868" max="4871" width="10.09765625" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="8.125" style="2"/>
+    <col min="4867" max="4867" width="33.75" style="2" customWidth="1"/>
+    <col min="4868" max="4871" width="10.125" style="2" customWidth="1"/>
     <col min="4872" max="4872" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4873" max="4873" width="13.3984375" style="2" customWidth="1"/>
-    <col min="4874" max="4874" width="0.69921875" style="2" customWidth="1"/>
-    <col min="4875" max="5120" width="8.09765625" style="2"/>
+    <col min="4873" max="4873" width="13.375" style="2" customWidth="1"/>
+    <col min="4874" max="4874" width="0.75" style="2" customWidth="1"/>
+    <col min="4875" max="5120" width="8.125" style="2"/>
     <col min="5121" max="5121" width="9" style="2" customWidth="1"/>
-    <col min="5122" max="5122" width="8.09765625" style="2"/>
-    <col min="5123" max="5123" width="33.69921875" style="2" customWidth="1"/>
-    <col min="5124" max="5127" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="8.125" style="2"/>
+    <col min="5123" max="5123" width="33.75" style="2" customWidth="1"/>
+    <col min="5124" max="5127" width="10.125" style="2" customWidth="1"/>
     <col min="5128" max="5128" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5129" max="5129" width="13.3984375" style="2" customWidth="1"/>
-    <col min="5130" max="5130" width="0.69921875" style="2" customWidth="1"/>
-    <col min="5131" max="5376" width="8.09765625" style="2"/>
+    <col min="5129" max="5129" width="13.375" style="2" customWidth="1"/>
+    <col min="5130" max="5130" width="0.75" style="2" customWidth="1"/>
+    <col min="5131" max="5376" width="8.125" style="2"/>
     <col min="5377" max="5377" width="9" style="2" customWidth="1"/>
-    <col min="5378" max="5378" width="8.09765625" style="2"/>
-    <col min="5379" max="5379" width="33.69921875" style="2" customWidth="1"/>
-    <col min="5380" max="5383" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="8.125" style="2"/>
+    <col min="5379" max="5379" width="33.75" style="2" customWidth="1"/>
+    <col min="5380" max="5383" width="10.125" style="2" customWidth="1"/>
     <col min="5384" max="5384" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5385" max="5385" width="13.3984375" style="2" customWidth="1"/>
-    <col min="5386" max="5386" width="0.69921875" style="2" customWidth="1"/>
-    <col min="5387" max="5632" width="8.09765625" style="2"/>
+    <col min="5385" max="5385" width="13.375" style="2" customWidth="1"/>
+    <col min="5386" max="5386" width="0.75" style="2" customWidth="1"/>
+    <col min="5387" max="5632" width="8.125" style="2"/>
     <col min="5633" max="5633" width="9" style="2" customWidth="1"/>
-    <col min="5634" max="5634" width="8.09765625" style="2"/>
-    <col min="5635" max="5635" width="33.69921875" style="2" customWidth="1"/>
-    <col min="5636" max="5639" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="8.125" style="2"/>
+    <col min="5635" max="5635" width="33.75" style="2" customWidth="1"/>
+    <col min="5636" max="5639" width="10.125" style="2" customWidth="1"/>
     <col min="5640" max="5640" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5641" max="5641" width="13.3984375" style="2" customWidth="1"/>
-    <col min="5642" max="5642" width="0.69921875" style="2" customWidth="1"/>
-    <col min="5643" max="5888" width="8.09765625" style="2"/>
+    <col min="5641" max="5641" width="13.375" style="2" customWidth="1"/>
+    <col min="5642" max="5642" width="0.75" style="2" customWidth="1"/>
+    <col min="5643" max="5888" width="8.125" style="2"/>
     <col min="5889" max="5889" width="9" style="2" customWidth="1"/>
-    <col min="5890" max="5890" width="8.09765625" style="2"/>
-    <col min="5891" max="5891" width="33.69921875" style="2" customWidth="1"/>
-    <col min="5892" max="5895" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="8.125" style="2"/>
+    <col min="5891" max="5891" width="33.75" style="2" customWidth="1"/>
+    <col min="5892" max="5895" width="10.125" style="2" customWidth="1"/>
     <col min="5896" max="5896" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5897" max="5897" width="13.3984375" style="2" customWidth="1"/>
-    <col min="5898" max="5898" width="0.69921875" style="2" customWidth="1"/>
-    <col min="5899" max="6144" width="8.09765625" style="2"/>
+    <col min="5897" max="5897" width="13.375" style="2" customWidth="1"/>
+    <col min="5898" max="5898" width="0.75" style="2" customWidth="1"/>
+    <col min="5899" max="6144" width="8.125" style="2"/>
     <col min="6145" max="6145" width="9" style="2" customWidth="1"/>
-    <col min="6146" max="6146" width="8.09765625" style="2"/>
-    <col min="6147" max="6147" width="33.69921875" style="2" customWidth="1"/>
-    <col min="6148" max="6151" width="10.09765625" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="8.125" style="2"/>
+    <col min="6147" max="6147" width="33.75" style="2" customWidth="1"/>
+    <col min="6148" max="6151" width="10.125" style="2" customWidth="1"/>
     <col min="6152" max="6152" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6153" max="6153" width="13.3984375" style="2" customWidth="1"/>
-    <col min="6154" max="6154" width="0.69921875" style="2" customWidth="1"/>
-    <col min="6155" max="6400" width="8.09765625" style="2"/>
+    <col min="6153" max="6153" width="13.375" style="2" customWidth="1"/>
+    <col min="6154" max="6154" width="0.75" style="2" customWidth="1"/>
+    <col min="6155" max="6400" width="8.125" style="2"/>
     <col min="6401" max="6401" width="9" style="2" customWidth="1"/>
-    <col min="6402" max="6402" width="8.09765625" style="2"/>
-    <col min="6403" max="6403" width="33.69921875" style="2" customWidth="1"/>
-    <col min="6404" max="6407" width="10.09765625" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="8.125" style="2"/>
+    <col min="6403" max="6403" width="33.75" style="2" customWidth="1"/>
+    <col min="6404" max="6407" width="10.125" style="2" customWidth="1"/>
     <col min="6408" max="6408" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6409" max="6409" width="13.3984375" style="2" customWidth="1"/>
-    <col min="6410" max="6410" width="0.69921875" style="2" customWidth="1"/>
-    <col min="6411" max="6656" width="8.09765625" style="2"/>
+    <col min="6409" max="6409" width="13.375" style="2" customWidth="1"/>
+    <col min="6410" max="6410" width="0.75" style="2" customWidth="1"/>
+    <col min="6411" max="6656" width="8.125" style="2"/>
     <col min="6657" max="6657" width="9" style="2" customWidth="1"/>
-    <col min="6658" max="6658" width="8.09765625" style="2"/>
-    <col min="6659" max="6659" width="33.69921875" style="2" customWidth="1"/>
-    <col min="6660" max="6663" width="10.09765625" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="8.125" style="2"/>
+    <col min="6659" max="6659" width="33.75" style="2" customWidth="1"/>
+    <col min="6660" max="6663" width="10.125" style="2" customWidth="1"/>
     <col min="6664" max="6664" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6665" max="6665" width="13.3984375" style="2" customWidth="1"/>
-    <col min="6666" max="6666" width="0.69921875" style="2" customWidth="1"/>
-    <col min="6667" max="6912" width="8.09765625" style="2"/>
+    <col min="6665" max="6665" width="13.375" style="2" customWidth="1"/>
+    <col min="6666" max="6666" width="0.75" style="2" customWidth="1"/>
+    <col min="6667" max="6912" width="8.125" style="2"/>
     <col min="6913" max="6913" width="9" style="2" customWidth="1"/>
-    <col min="6914" max="6914" width="8.09765625" style="2"/>
-    <col min="6915" max="6915" width="33.69921875" style="2" customWidth="1"/>
-    <col min="6916" max="6919" width="10.09765625" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="8.125" style="2"/>
+    <col min="6915" max="6915" width="33.75" style="2" customWidth="1"/>
+    <col min="6916" max="6919" width="10.125" style="2" customWidth="1"/>
     <col min="6920" max="6920" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6921" max="6921" width="13.3984375" style="2" customWidth="1"/>
-    <col min="6922" max="6922" width="0.69921875" style="2" customWidth="1"/>
-    <col min="6923" max="7168" width="8.09765625" style="2"/>
+    <col min="6921" max="6921" width="13.375" style="2" customWidth="1"/>
+    <col min="6922" max="6922" width="0.75" style="2" customWidth="1"/>
+    <col min="6923" max="7168" width="8.125" style="2"/>
     <col min="7169" max="7169" width="9" style="2" customWidth="1"/>
-    <col min="7170" max="7170" width="8.09765625" style="2"/>
-    <col min="7171" max="7171" width="33.69921875" style="2" customWidth="1"/>
-    <col min="7172" max="7175" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="8.125" style="2"/>
+    <col min="7171" max="7171" width="33.75" style="2" customWidth="1"/>
+    <col min="7172" max="7175" width="10.125" style="2" customWidth="1"/>
     <col min="7176" max="7176" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7177" max="7177" width="13.3984375" style="2" customWidth="1"/>
-    <col min="7178" max="7178" width="0.69921875" style="2" customWidth="1"/>
-    <col min="7179" max="7424" width="8.09765625" style="2"/>
+    <col min="7177" max="7177" width="13.375" style="2" customWidth="1"/>
+    <col min="7178" max="7178" width="0.75" style="2" customWidth="1"/>
+    <col min="7179" max="7424" width="8.125" style="2"/>
     <col min="7425" max="7425" width="9" style="2" customWidth="1"/>
-    <col min="7426" max="7426" width="8.09765625" style="2"/>
-    <col min="7427" max="7427" width="33.69921875" style="2" customWidth="1"/>
-    <col min="7428" max="7431" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="8.125" style="2"/>
+    <col min="7427" max="7427" width="33.75" style="2" customWidth="1"/>
+    <col min="7428" max="7431" width="10.125" style="2" customWidth="1"/>
     <col min="7432" max="7432" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7433" max="7433" width="13.3984375" style="2" customWidth="1"/>
-    <col min="7434" max="7434" width="0.69921875" style="2" customWidth="1"/>
-    <col min="7435" max="7680" width="8.09765625" style="2"/>
+    <col min="7433" max="7433" width="13.375" style="2" customWidth="1"/>
+    <col min="7434" max="7434" width="0.75" style="2" customWidth="1"/>
+    <col min="7435" max="7680" width="8.125" style="2"/>
     <col min="7681" max="7681" width="9" style="2" customWidth="1"/>
-    <col min="7682" max="7682" width="8.09765625" style="2"/>
-    <col min="7683" max="7683" width="33.69921875" style="2" customWidth="1"/>
-    <col min="7684" max="7687" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="8.125" style="2"/>
+    <col min="7683" max="7683" width="33.75" style="2" customWidth="1"/>
+    <col min="7684" max="7687" width="10.125" style="2" customWidth="1"/>
     <col min="7688" max="7688" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7689" max="7689" width="13.3984375" style="2" customWidth="1"/>
-    <col min="7690" max="7690" width="0.69921875" style="2" customWidth="1"/>
-    <col min="7691" max="7936" width="8.09765625" style="2"/>
+    <col min="7689" max="7689" width="13.375" style="2" customWidth="1"/>
+    <col min="7690" max="7690" width="0.75" style="2" customWidth="1"/>
+    <col min="7691" max="7936" width="8.125" style="2"/>
     <col min="7937" max="7937" width="9" style="2" customWidth="1"/>
-    <col min="7938" max="7938" width="8.09765625" style="2"/>
-    <col min="7939" max="7939" width="33.69921875" style="2" customWidth="1"/>
-    <col min="7940" max="7943" width="10.09765625" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="8.125" style="2"/>
+    <col min="7939" max="7939" width="33.75" style="2" customWidth="1"/>
+    <col min="7940" max="7943" width="10.125" style="2" customWidth="1"/>
     <col min="7944" max="7944" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="7945" max="7945" width="13.3984375" style="2" customWidth="1"/>
-    <col min="7946" max="7946" width="0.69921875" style="2" customWidth="1"/>
-    <col min="7947" max="8192" width="8.09765625" style="2"/>
+    <col min="7945" max="7945" width="13.375" style="2" customWidth="1"/>
+    <col min="7946" max="7946" width="0.75" style="2" customWidth="1"/>
+    <col min="7947" max="8192" width="8.125" style="2"/>
     <col min="8193" max="8193" width="9" style="2" customWidth="1"/>
-    <col min="8194" max="8194" width="8.09765625" style="2"/>
-    <col min="8195" max="8195" width="33.69921875" style="2" customWidth="1"/>
-    <col min="8196" max="8199" width="10.09765625" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="8.125" style="2"/>
+    <col min="8195" max="8195" width="33.75" style="2" customWidth="1"/>
+    <col min="8196" max="8199" width="10.125" style="2" customWidth="1"/>
     <col min="8200" max="8200" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8201" max="8201" width="13.3984375" style="2" customWidth="1"/>
-    <col min="8202" max="8202" width="0.69921875" style="2" customWidth="1"/>
-    <col min="8203" max="8448" width="8.09765625" style="2"/>
+    <col min="8201" max="8201" width="13.375" style="2" customWidth="1"/>
+    <col min="8202" max="8202" width="0.75" style="2" customWidth="1"/>
+    <col min="8203" max="8448" width="8.125" style="2"/>
     <col min="8449" max="8449" width="9" style="2" customWidth="1"/>
-    <col min="8450" max="8450" width="8.09765625" style="2"/>
-    <col min="8451" max="8451" width="33.69921875" style="2" customWidth="1"/>
-    <col min="8452" max="8455" width="10.09765625" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="8.125" style="2"/>
+    <col min="8451" max="8451" width="33.75" style="2" customWidth="1"/>
+    <col min="8452" max="8455" width="10.125" style="2" customWidth="1"/>
     <col min="8456" max="8456" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8457" max="8457" width="13.3984375" style="2" customWidth="1"/>
-    <col min="8458" max="8458" width="0.69921875" style="2" customWidth="1"/>
-    <col min="8459" max="8704" width="8.09765625" style="2"/>
+    <col min="8457" max="8457" width="13.375" style="2" customWidth="1"/>
+    <col min="8458" max="8458" width="0.75" style="2" customWidth="1"/>
+    <col min="8459" max="8704" width="8.125" style="2"/>
     <col min="8705" max="8705" width="9" style="2" customWidth="1"/>
-    <col min="8706" max="8706" width="8.09765625" style="2"/>
-    <col min="8707" max="8707" width="33.69921875" style="2" customWidth="1"/>
-    <col min="8708" max="8711" width="10.09765625" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="8.125" style="2"/>
+    <col min="8707" max="8707" width="33.75" style="2" customWidth="1"/>
+    <col min="8708" max="8711" width="10.125" style="2" customWidth="1"/>
     <col min="8712" max="8712" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8713" max="8713" width="13.3984375" style="2" customWidth="1"/>
-    <col min="8714" max="8714" width="0.69921875" style="2" customWidth="1"/>
-    <col min="8715" max="8960" width="8.09765625" style="2"/>
+    <col min="8713" max="8713" width="13.375" style="2" customWidth="1"/>
+    <col min="8714" max="8714" width="0.75" style="2" customWidth="1"/>
+    <col min="8715" max="8960" width="8.125" style="2"/>
     <col min="8961" max="8961" width="9" style="2" customWidth="1"/>
-    <col min="8962" max="8962" width="8.09765625" style="2"/>
-    <col min="8963" max="8963" width="33.69921875" style="2" customWidth="1"/>
-    <col min="8964" max="8967" width="10.09765625" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="8.125" style="2"/>
+    <col min="8963" max="8963" width="33.75" style="2" customWidth="1"/>
+    <col min="8964" max="8967" width="10.125" style="2" customWidth="1"/>
     <col min="8968" max="8968" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8969" max="8969" width="13.3984375" style="2" customWidth="1"/>
-    <col min="8970" max="8970" width="0.69921875" style="2" customWidth="1"/>
-    <col min="8971" max="9216" width="8.09765625" style="2"/>
+    <col min="8969" max="8969" width="13.375" style="2" customWidth="1"/>
+    <col min="8970" max="8970" width="0.75" style="2" customWidth="1"/>
+    <col min="8971" max="9216" width="8.125" style="2"/>
     <col min="9217" max="9217" width="9" style="2" customWidth="1"/>
-    <col min="9218" max="9218" width="8.09765625" style="2"/>
-    <col min="9219" max="9219" width="33.69921875" style="2" customWidth="1"/>
-    <col min="9220" max="9223" width="10.09765625" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="8.125" style="2"/>
+    <col min="9219" max="9219" width="33.75" style="2" customWidth="1"/>
+    <col min="9220" max="9223" width="10.125" style="2" customWidth="1"/>
     <col min="9224" max="9224" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9225" max="9225" width="13.3984375" style="2" customWidth="1"/>
-    <col min="9226" max="9226" width="0.69921875" style="2" customWidth="1"/>
-    <col min="9227" max="9472" width="8.09765625" style="2"/>
+    <col min="9225" max="9225" width="13.375" style="2" customWidth="1"/>
+    <col min="9226" max="9226" width="0.75" style="2" customWidth="1"/>
+    <col min="9227" max="9472" width="8.125" style="2"/>
     <col min="9473" max="9473" width="9" style="2" customWidth="1"/>
-    <col min="9474" max="9474" width="8.09765625" style="2"/>
-    <col min="9475" max="9475" width="33.69921875" style="2" customWidth="1"/>
-    <col min="9476" max="9479" width="10.09765625" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="8.125" style="2"/>
+    <col min="9475" max="9475" width="33.75" style="2" customWidth="1"/>
+    <col min="9476" max="9479" width="10.125" style="2" customWidth="1"/>
     <col min="9480" max="9480" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9481" max="9481" width="13.3984375" style="2" customWidth="1"/>
-    <col min="9482" max="9482" width="0.69921875" style="2" customWidth="1"/>
-    <col min="9483" max="9728" width="8.09765625" style="2"/>
+    <col min="9481" max="9481" width="13.375" style="2" customWidth="1"/>
+    <col min="9482" max="9482" width="0.75" style="2" customWidth="1"/>
+    <col min="9483" max="9728" width="8.125" style="2"/>
     <col min="9729" max="9729" width="9" style="2" customWidth="1"/>
-    <col min="9730" max="9730" width="8.09765625" style="2"/>
-    <col min="9731" max="9731" width="33.69921875" style="2" customWidth="1"/>
-    <col min="9732" max="9735" width="10.09765625" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="8.125" style="2"/>
+    <col min="9731" max="9731" width="33.75" style="2" customWidth="1"/>
+    <col min="9732" max="9735" width="10.125" style="2" customWidth="1"/>
     <col min="9736" max="9736" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9737" max="9737" width="13.3984375" style="2" customWidth="1"/>
-    <col min="9738" max="9738" width="0.69921875" style="2" customWidth="1"/>
-    <col min="9739" max="9984" width="8.09765625" style="2"/>
+    <col min="9737" max="9737" width="13.375" style="2" customWidth="1"/>
+    <col min="9738" max="9738" width="0.75" style="2" customWidth="1"/>
+    <col min="9739" max="9984" width="8.125" style="2"/>
     <col min="9985" max="9985" width="9" style="2" customWidth="1"/>
-    <col min="9986" max="9986" width="8.09765625" style="2"/>
-    <col min="9987" max="9987" width="33.69921875" style="2" customWidth="1"/>
-    <col min="9988" max="9991" width="10.09765625" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="8.125" style="2"/>
+    <col min="9987" max="9987" width="33.75" style="2" customWidth="1"/>
+    <col min="9988" max="9991" width="10.125" style="2" customWidth="1"/>
     <col min="9992" max="9992" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9993" max="9993" width="13.3984375" style="2" customWidth="1"/>
-    <col min="9994" max="9994" width="0.69921875" style="2" customWidth="1"/>
-    <col min="9995" max="10240" width="8.09765625" style="2"/>
+    <col min="9993" max="9993" width="13.375" style="2" customWidth="1"/>
+    <col min="9994" max="9994" width="0.75" style="2" customWidth="1"/>
+    <col min="9995" max="10240" width="8.125" style="2"/>
     <col min="10241" max="10241" width="9" style="2" customWidth="1"/>
-    <col min="10242" max="10242" width="8.09765625" style="2"/>
-    <col min="10243" max="10243" width="33.69921875" style="2" customWidth="1"/>
-    <col min="10244" max="10247" width="10.09765625" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="8.125" style="2"/>
+    <col min="10243" max="10243" width="33.75" style="2" customWidth="1"/>
+    <col min="10244" max="10247" width="10.125" style="2" customWidth="1"/>
     <col min="10248" max="10248" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10249" max="10249" width="13.3984375" style="2" customWidth="1"/>
-    <col min="10250" max="10250" width="0.69921875" style="2" customWidth="1"/>
-    <col min="10251" max="10496" width="8.09765625" style="2"/>
+    <col min="10249" max="10249" width="13.375" style="2" customWidth="1"/>
+    <col min="10250" max="10250" width="0.75" style="2" customWidth="1"/>
+    <col min="10251" max="10496" width="8.125" style="2"/>
     <col min="10497" max="10497" width="9" style="2" customWidth="1"/>
-    <col min="10498" max="10498" width="8.09765625" style="2"/>
-    <col min="10499" max="10499" width="33.69921875" style="2" customWidth="1"/>
-    <col min="10500" max="10503" width="10.09765625" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="8.125" style="2"/>
+    <col min="10499" max="10499" width="33.75" style="2" customWidth="1"/>
+    <col min="10500" max="10503" width="10.125" style="2" customWidth="1"/>
     <col min="10504" max="10504" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10505" max="10505" width="13.3984375" style="2" customWidth="1"/>
-    <col min="10506" max="10506" width="0.69921875" style="2" customWidth="1"/>
-    <col min="10507" max="10752" width="8.09765625" style="2"/>
+    <col min="10505" max="10505" width="13.375" style="2" customWidth="1"/>
+    <col min="10506" max="10506" width="0.75" style="2" customWidth="1"/>
+    <col min="10507" max="10752" width="8.125" style="2"/>
     <col min="10753" max="10753" width="9" style="2" customWidth="1"/>
-    <col min="10754" max="10754" width="8.09765625" style="2"/>
-    <col min="10755" max="10755" width="33.69921875" style="2" customWidth="1"/>
-    <col min="10756" max="10759" width="10.09765625" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="8.125" style="2"/>
+    <col min="10755" max="10755" width="33.75" style="2" customWidth="1"/>
+    <col min="10756" max="10759" width="10.125" style="2" customWidth="1"/>
     <col min="10760" max="10760" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10761" max="10761" width="13.3984375" style="2" customWidth="1"/>
-    <col min="10762" max="10762" width="0.69921875" style="2" customWidth="1"/>
-    <col min="10763" max="11008" width="8.09765625" style="2"/>
+    <col min="10761" max="10761" width="13.375" style="2" customWidth="1"/>
+    <col min="10762" max="10762" width="0.75" style="2" customWidth="1"/>
+    <col min="10763" max="11008" width="8.125" style="2"/>
     <col min="11009" max="11009" width="9" style="2" customWidth="1"/>
-    <col min="11010" max="11010" width="8.09765625" style="2"/>
-    <col min="11011" max="11011" width="33.69921875" style="2" customWidth="1"/>
-    <col min="11012" max="11015" width="10.09765625" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="8.125" style="2"/>
+    <col min="11011" max="11011" width="33.75" style="2" customWidth="1"/>
+    <col min="11012" max="11015" width="10.125" style="2" customWidth="1"/>
     <col min="11016" max="11016" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11017" max="11017" width="13.3984375" style="2" customWidth="1"/>
-    <col min="11018" max="11018" width="0.69921875" style="2" customWidth="1"/>
-    <col min="11019" max="11264" width="8.09765625" style="2"/>
+    <col min="11017" max="11017" width="13.375" style="2" customWidth="1"/>
+    <col min="11018" max="11018" width="0.75" style="2" customWidth="1"/>
+    <col min="11019" max="11264" width="8.125" style="2"/>
     <col min="11265" max="11265" width="9" style="2" customWidth="1"/>
-    <col min="11266" max="11266" width="8.09765625" style="2"/>
-    <col min="11267" max="11267" width="33.69921875" style="2" customWidth="1"/>
-    <col min="11268" max="11271" width="10.09765625" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="8.125" style="2"/>
+    <col min="11267" max="11267" width="33.75" style="2" customWidth="1"/>
+    <col min="11268" max="11271" width="10.125" style="2" customWidth="1"/>
     <col min="11272" max="11272" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11273" max="11273" width="13.3984375" style="2" customWidth="1"/>
-    <col min="11274" max="11274" width="0.69921875" style="2" customWidth="1"/>
-    <col min="11275" max="11520" width="8.09765625" style="2"/>
+    <col min="11273" max="11273" width="13.375" style="2" customWidth="1"/>
+    <col min="11274" max="11274" width="0.75" style="2" customWidth="1"/>
+    <col min="11275" max="11520" width="8.125" style="2"/>
     <col min="11521" max="11521" width="9" style="2" customWidth="1"/>
-    <col min="11522" max="11522" width="8.09765625" style="2"/>
-    <col min="11523" max="11523" width="33.69921875" style="2" customWidth="1"/>
-    <col min="11524" max="11527" width="10.09765625" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="8.125" style="2"/>
+    <col min="11523" max="11523" width="33.75" style="2" customWidth="1"/>
+    <col min="11524" max="11527" width="10.125" style="2" customWidth="1"/>
     <col min="11528" max="11528" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11529" max="11529" width="13.3984375" style="2" customWidth="1"/>
-    <col min="11530" max="11530" width="0.69921875" style="2" customWidth="1"/>
-    <col min="11531" max="11776" width="8.09765625" style="2"/>
+    <col min="11529" max="11529" width="13.375" style="2" customWidth="1"/>
+    <col min="11530" max="11530" width="0.75" style="2" customWidth="1"/>
+    <col min="11531" max="11776" width="8.125" style="2"/>
     <col min="11777" max="11777" width="9" style="2" customWidth="1"/>
-    <col min="11778" max="11778" width="8.09765625" style="2"/>
-    <col min="11779" max="11779" width="33.69921875" style="2" customWidth="1"/>
-    <col min="11780" max="11783" width="10.09765625" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="8.125" style="2"/>
+    <col min="11779" max="11779" width="33.75" style="2" customWidth="1"/>
+    <col min="11780" max="11783" width="10.125" style="2" customWidth="1"/>
     <col min="11784" max="11784" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11785" max="11785" width="13.3984375" style="2" customWidth="1"/>
-    <col min="11786" max="11786" width="0.69921875" style="2" customWidth="1"/>
-    <col min="11787" max="12032" width="8.09765625" style="2"/>
+    <col min="11785" max="11785" width="13.375" style="2" customWidth="1"/>
+    <col min="11786" max="11786" width="0.75" style="2" customWidth="1"/>
+    <col min="11787" max="12032" width="8.125" style="2"/>
     <col min="12033" max="12033" width="9" style="2" customWidth="1"/>
-    <col min="12034" max="12034" width="8.09765625" style="2"/>
-    <col min="12035" max="12035" width="33.69921875" style="2" customWidth="1"/>
-    <col min="12036" max="12039" width="10.09765625" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="8.125" style="2"/>
+    <col min="12035" max="12035" width="33.75" style="2" customWidth="1"/>
+    <col min="12036" max="12039" width="10.125" style="2" customWidth="1"/>
     <col min="12040" max="12040" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12041" max="12041" width="13.3984375" style="2" customWidth="1"/>
-    <col min="12042" max="12042" width="0.69921875" style="2" customWidth="1"/>
-    <col min="12043" max="12288" width="8.09765625" style="2"/>
+    <col min="12041" max="12041" width="13.375" style="2" customWidth="1"/>
+    <col min="12042" max="12042" width="0.75" style="2" customWidth="1"/>
+    <col min="12043" max="12288" width="8.125" style="2"/>
     <col min="12289" max="12289" width="9" style="2" customWidth="1"/>
-    <col min="12290" max="12290" width="8.09765625" style="2"/>
-    <col min="12291" max="12291" width="33.69921875" style="2" customWidth="1"/>
-    <col min="12292" max="12295" width="10.09765625" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="8.125" style="2"/>
+    <col min="12291" max="12291" width="33.75" style="2" customWidth="1"/>
+    <col min="12292" max="12295" width="10.125" style="2" customWidth="1"/>
     <col min="12296" max="12296" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12297" max="12297" width="13.3984375" style="2" customWidth="1"/>
-    <col min="12298" max="12298" width="0.69921875" style="2" customWidth="1"/>
-    <col min="12299" max="12544" width="8.09765625" style="2"/>
+    <col min="12297" max="12297" width="13.375" style="2" customWidth="1"/>
+    <col min="12298" max="12298" width="0.75" style="2" customWidth="1"/>
+    <col min="12299" max="12544" width="8.125" style="2"/>
     <col min="12545" max="12545" width="9" style="2" customWidth="1"/>
-    <col min="12546" max="12546" width="8.09765625" style="2"/>
-    <col min="12547" max="12547" width="33.69921875" style="2" customWidth="1"/>
-    <col min="12548" max="12551" width="10.09765625" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="8.125" style="2"/>
+    <col min="12547" max="12547" width="33.75" style="2" customWidth="1"/>
+    <col min="12548" max="12551" width="10.125" style="2" customWidth="1"/>
     <col min="12552" max="12552" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12553" max="12553" width="13.3984375" style="2" customWidth="1"/>
-    <col min="12554" max="12554" width="0.69921875" style="2" customWidth="1"/>
-    <col min="12555" max="12800" width="8.09765625" style="2"/>
+    <col min="12553" max="12553" width="13.375" style="2" customWidth="1"/>
+    <col min="12554" max="12554" width="0.75" style="2" customWidth="1"/>
+    <col min="12555" max="12800" width="8.125" style="2"/>
     <col min="12801" max="12801" width="9" style="2" customWidth="1"/>
-    <col min="12802" max="12802" width="8.09765625" style="2"/>
-    <col min="12803" max="12803" width="33.69921875" style="2" customWidth="1"/>
-    <col min="12804" max="12807" width="10.09765625" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="8.125" style="2"/>
+    <col min="12803" max="12803" width="33.75" style="2" customWidth="1"/>
+    <col min="12804" max="12807" width="10.125" style="2" customWidth="1"/>
     <col min="12808" max="12808" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12809" max="12809" width="13.3984375" style="2" customWidth="1"/>
-    <col min="12810" max="12810" width="0.69921875" style="2" customWidth="1"/>
-    <col min="12811" max="13056" width="8.09765625" style="2"/>
+    <col min="12809" max="12809" width="13.375" style="2" customWidth="1"/>
+    <col min="12810" max="12810" width="0.75" style="2" customWidth="1"/>
+    <col min="12811" max="13056" width="8.125" style="2"/>
     <col min="13057" max="13057" width="9" style="2" customWidth="1"/>
-    <col min="13058" max="13058" width="8.09765625" style="2"/>
-    <col min="13059" max="13059" width="33.69921875" style="2" customWidth="1"/>
-    <col min="13060" max="13063" width="10.09765625" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="8.125" style="2"/>
+    <col min="13059" max="13059" width="33.75" style="2" customWidth="1"/>
+    <col min="13060" max="13063" width="10.125" style="2" customWidth="1"/>
     <col min="13064" max="13064" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13065" max="13065" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13066" max="13066" width="0.69921875" style="2" customWidth="1"/>
-    <col min="13067" max="13312" width="8.09765625" style="2"/>
+    <col min="13065" max="13065" width="13.375" style="2" customWidth="1"/>
+    <col min="13066" max="13066" width="0.75" style="2" customWidth="1"/>
+    <col min="13067" max="13312" width="8.125" style="2"/>
     <col min="13313" max="13313" width="9" style="2" customWidth="1"/>
-    <col min="13314" max="13314" width="8.09765625" style="2"/>
-    <col min="13315" max="13315" width="33.69921875" style="2" customWidth="1"/>
-    <col min="13316" max="13319" width="10.09765625" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="8.125" style="2"/>
+    <col min="13315" max="13315" width="33.75" style="2" customWidth="1"/>
+    <col min="13316" max="13319" width="10.125" style="2" customWidth="1"/>
     <col min="13320" max="13320" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13321" max="13321" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13322" max="13322" width="0.69921875" style="2" customWidth="1"/>
-    <col min="13323" max="13568" width="8.09765625" style="2"/>
+    <col min="13321" max="13321" width="13.375" style="2" customWidth="1"/>
+    <col min="13322" max="13322" width="0.75" style="2" customWidth="1"/>
+    <col min="13323" max="13568" width="8.125" style="2"/>
     <col min="13569" max="13569" width="9" style="2" customWidth="1"/>
-    <col min="13570" max="13570" width="8.09765625" style="2"/>
-    <col min="13571" max="13571" width="33.69921875" style="2" customWidth="1"/>
-    <col min="13572" max="13575" width="10.09765625" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="8.125" style="2"/>
+    <col min="13571" max="13571" width="33.75" style="2" customWidth="1"/>
+    <col min="13572" max="13575" width="10.125" style="2" customWidth="1"/>
     <col min="13576" max="13576" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13577" max="13577" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13578" max="13578" width="0.69921875" style="2" customWidth="1"/>
-    <col min="13579" max="13824" width="8.09765625" style="2"/>
+    <col min="13577" max="13577" width="13.375" style="2" customWidth="1"/>
+    <col min="13578" max="13578" width="0.75" style="2" customWidth="1"/>
+    <col min="13579" max="13824" width="8.125" style="2"/>
     <col min="13825" max="13825" width="9" style="2" customWidth="1"/>
-    <col min="13826" max="13826" width="8.09765625" style="2"/>
-    <col min="13827" max="13827" width="33.69921875" style="2" customWidth="1"/>
-    <col min="13828" max="13831" width="10.09765625" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="8.125" style="2"/>
+    <col min="13827" max="13827" width="33.75" style="2" customWidth="1"/>
+    <col min="13828" max="13831" width="10.125" style="2" customWidth="1"/>
     <col min="13832" max="13832" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13833" max="13833" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13834" max="13834" width="0.69921875" style="2" customWidth="1"/>
-    <col min="13835" max="14080" width="8.09765625" style="2"/>
+    <col min="13833" max="13833" width="13.375" style="2" customWidth="1"/>
+    <col min="13834" max="13834" width="0.75" style="2" customWidth="1"/>
+    <col min="13835" max="14080" width="8.125" style="2"/>
     <col min="14081" max="14081" width="9" style="2" customWidth="1"/>
-    <col min="14082" max="14082" width="8.09765625" style="2"/>
-    <col min="14083" max="14083" width="33.69921875" style="2" customWidth="1"/>
-    <col min="14084" max="14087" width="10.09765625" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="8.125" style="2"/>
+    <col min="14083" max="14083" width="33.75" style="2" customWidth="1"/>
+    <col min="14084" max="14087" width="10.125" style="2" customWidth="1"/>
     <col min="14088" max="14088" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14089" max="14089" width="13.3984375" style="2" customWidth="1"/>
-    <col min="14090" max="14090" width="0.69921875" style="2" customWidth="1"/>
-    <col min="14091" max="14336" width="8.09765625" style="2"/>
+    <col min="14089" max="14089" width="13.375" style="2" customWidth="1"/>
+    <col min="14090" max="14090" width="0.75" style="2" customWidth="1"/>
+    <col min="14091" max="14336" width="8.125" style="2"/>
     <col min="14337" max="14337" width="9" style="2" customWidth="1"/>
-    <col min="14338" max="14338" width="8.09765625" style="2"/>
-    <col min="14339" max="14339" width="33.69921875" style="2" customWidth="1"/>
-    <col min="14340" max="14343" width="10.09765625" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="8.125" style="2"/>
+    <col min="14339" max="14339" width="33.75" style="2" customWidth="1"/>
+    <col min="14340" max="14343" width="10.125" style="2" customWidth="1"/>
     <col min="14344" max="14344" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14345" max="14345" width="13.3984375" style="2" customWidth="1"/>
-    <col min="14346" max="14346" width="0.69921875" style="2" customWidth="1"/>
-    <col min="14347" max="14592" width="8.09765625" style="2"/>
+    <col min="14345" max="14345" width="13.375" style="2" customWidth="1"/>
+    <col min="14346" max="14346" width="0.75" style="2" customWidth="1"/>
+    <col min="14347" max="14592" width="8.125" style="2"/>
     <col min="14593" max="14593" width="9" style="2" customWidth="1"/>
-    <col min="14594" max="14594" width="8.09765625" style="2"/>
-    <col min="14595" max="14595" width="33.69921875" style="2" customWidth="1"/>
-    <col min="14596" max="14599" width="10.09765625" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="8.125" style="2"/>
+    <col min="14595" max="14595" width="33.75" style="2" customWidth="1"/>
+    <col min="14596" max="14599" width="10.125" style="2" customWidth="1"/>
     <col min="14600" max="14600" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14601" max="14601" width="13.3984375" style="2" customWidth="1"/>
-    <col min="14602" max="14602" width="0.69921875" style="2" customWidth="1"/>
-    <col min="14603" max="14848" width="8.09765625" style="2"/>
+    <col min="14601" max="14601" width="13.375" style="2" customWidth="1"/>
+    <col min="14602" max="14602" width="0.75" style="2" customWidth="1"/>
+    <col min="14603" max="14848" width="8.125" style="2"/>
     <col min="14849" max="14849" width="9" style="2" customWidth="1"/>
-    <col min="14850" max="14850" width="8.09765625" style="2"/>
-    <col min="14851" max="14851" width="33.69921875" style="2" customWidth="1"/>
-    <col min="14852" max="14855" width="10.09765625" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="8.125" style="2"/>
+    <col min="14851" max="14851" width="33.75" style="2" customWidth="1"/>
+    <col min="14852" max="14855" width="10.125" style="2" customWidth="1"/>
     <col min="14856" max="14856" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="14857" max="14857" width="13.3984375" style="2" customWidth="1"/>
-    <col min="14858" max="14858" width="0.69921875" style="2" customWidth="1"/>
-    <col min="14859" max="15104" width="8.09765625" style="2"/>
+    <col min="14857" max="14857" width="13.375" style="2" customWidth="1"/>
+    <col min="14858" max="14858" width="0.75" style="2" customWidth="1"/>
+    <col min="14859" max="15104" width="8.125" style="2"/>
     <col min="15105" max="15105" width="9" style="2" customWidth="1"/>
-    <col min="15106" max="15106" width="8.09765625" style="2"/>
-    <col min="15107" max="15107" width="33.69921875" style="2" customWidth="1"/>
-    <col min="15108" max="15111" width="10.09765625" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="8.125" style="2"/>
+    <col min="15107" max="15107" width="33.75" style="2" customWidth="1"/>
+    <col min="15108" max="15111" width="10.125" style="2" customWidth="1"/>
     <col min="15112" max="15112" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15113" max="15113" width="13.3984375" style="2" customWidth="1"/>
-    <col min="15114" max="15114" width="0.69921875" style="2" customWidth="1"/>
-    <col min="15115" max="15360" width="8.09765625" style="2"/>
+    <col min="15113" max="15113" width="13.375" style="2" customWidth="1"/>
+    <col min="15114" max="15114" width="0.75" style="2" customWidth="1"/>
+    <col min="15115" max="15360" width="8.125" style="2"/>
     <col min="15361" max="15361" width="9" style="2" customWidth="1"/>
-    <col min="15362" max="15362" width="8.09765625" style="2"/>
-    <col min="15363" max="15363" width="33.69921875" style="2" customWidth="1"/>
-    <col min="15364" max="15367" width="10.09765625" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="8.125" style="2"/>
+    <col min="15363" max="15363" width="33.75" style="2" customWidth="1"/>
+    <col min="15364" max="15367" width="10.125" style="2" customWidth="1"/>
     <col min="15368" max="15368" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15369" max="15369" width="13.3984375" style="2" customWidth="1"/>
-    <col min="15370" max="15370" width="0.69921875" style="2" customWidth="1"/>
-    <col min="15371" max="15616" width="8.09765625" style="2"/>
+    <col min="15369" max="15369" width="13.375" style="2" customWidth="1"/>
+    <col min="15370" max="15370" width="0.75" style="2" customWidth="1"/>
+    <col min="15371" max="15616" width="8.125" style="2"/>
     <col min="15617" max="15617" width="9" style="2" customWidth="1"/>
-    <col min="15618" max="15618" width="8.09765625" style="2"/>
-    <col min="15619" max="15619" width="33.69921875" style="2" customWidth="1"/>
-    <col min="15620" max="15623" width="10.09765625" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="8.125" style="2"/>
+    <col min="15619" max="15619" width="33.75" style="2" customWidth="1"/>
+    <col min="15620" max="15623" width="10.125" style="2" customWidth="1"/>
     <col min="15624" max="15624" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15625" max="15625" width="13.3984375" style="2" customWidth="1"/>
-    <col min="15626" max="15626" width="0.69921875" style="2" customWidth="1"/>
-    <col min="15627" max="15872" width="8.09765625" style="2"/>
+    <col min="15625" max="15625" width="13.375" style="2" customWidth="1"/>
+    <col min="15626" max="15626" width="0.75" style="2" customWidth="1"/>
+    <col min="15627" max="15872" width="8.125" style="2"/>
     <col min="15873" max="15873" width="9" style="2" customWidth="1"/>
-    <col min="15874" max="15874" width="8.09765625" style="2"/>
-    <col min="15875" max="15875" width="33.69921875" style="2" customWidth="1"/>
-    <col min="15876" max="15879" width="10.09765625" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="8.125" style="2"/>
+    <col min="15875" max="15875" width="33.75" style="2" customWidth="1"/>
+    <col min="15876" max="15879" width="10.125" style="2" customWidth="1"/>
     <col min="15880" max="15880" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15881" max="15881" width="13.3984375" style="2" customWidth="1"/>
-    <col min="15882" max="15882" width="0.69921875" style="2" customWidth="1"/>
-    <col min="15883" max="16128" width="8.09765625" style="2"/>
+    <col min="15881" max="15881" width="13.375" style="2" customWidth="1"/>
+    <col min="15882" max="15882" width="0.75" style="2" customWidth="1"/>
+    <col min="15883" max="16128" width="8.125" style="2"/>
     <col min="16129" max="16129" width="9" style="2" customWidth="1"/>
-    <col min="16130" max="16130" width="8.09765625" style="2"/>
-    <col min="16131" max="16131" width="33.69921875" style="2" customWidth="1"/>
-    <col min="16132" max="16135" width="10.09765625" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="8.125" style="2"/>
+    <col min="16131" max="16131" width="33.75" style="2" customWidth="1"/>
+    <col min="16132" max="16135" width="10.125" style="2" customWidth="1"/>
     <col min="16136" max="16136" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16137" max="16137" width="13.3984375" style="2" customWidth="1"/>
-    <col min="16138" max="16138" width="0.69921875" style="2" customWidth="1"/>
-    <col min="16139" max="16384" width="8.09765625" style="2"/>
+    <col min="16137" max="16137" width="13.375" style="2" customWidth="1"/>
+    <col min="16138" max="16138" width="0.75" style="2" customWidth="1"/>
+    <col min="16139" max="16384" width="8.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,28 +1196,28 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="28">
+      <c r="H3" s="22">
         <v>41366</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1248,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
@@ -1306,7 +1273,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1322,19 +1289,16 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="17">
-        <f>SUM(D7:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
